--- a/Kế hoạch nhóm 01.xlsx
+++ b/Kế hoạch nhóm 01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\KÌ 5\Thực hành làm việc nhóm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\KÌ 5\Thực hành làm việc nhóm\Practice-teamwork-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45B3AA5F-55D9-4EA5-B956-D6FC77799ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B17607-9060-45CA-B536-6827A4192AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{134E03A3-BC9C-415A-A0C3-5D97F6D28BA7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>KẾ HOẠCH CHUNG</t>
   </si>
@@ -573,7 +573,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -654,8 +654,8 @@
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>9</v>
+      <c r="A6" s="7">
+        <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>9</v>

--- a/Kế hoạch nhóm 01.xlsx
+++ b/Kế hoạch nhóm 01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\KÌ 5\Thực hành làm việc nhóm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\KÌ 5\Thực hành làm việc nhóm\Practice-teamwork-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45B3AA5F-55D9-4EA5-B956-D6FC77799ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3156D018-7656-4C13-8AFA-66FE24DAB768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{134E03A3-BC9C-415A-A0C3-5D97F6D28BA7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>KẾ HOẠCH CHUNG</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Tạ Xuân Kiên</t>
   </si>
   <si>
-    <t>Tên đề tài …</t>
-  </si>
-  <si>
     <t>Nhóm 01</t>
   </si>
   <si>
@@ -124,6 +121,57 @@
   </si>
   <si>
     <t>Đã có kế hoạch chi tiết</t>
+  </si>
+  <si>
+    <t>Tên đề tài: Quản lý bãi gửi xe</t>
+  </si>
+  <si>
+    <t>Tuần: 4</t>
+  </si>
+  <si>
+    <t>Từ ngày đến ngày: 12/9/2022-18/9/2022</t>
+  </si>
+  <si>
+    <t>Thùy add mng vào Trello</t>
+  </si>
+  <si>
+    <t>add nhóm vào GitHub</t>
+  </si>
+  <si>
+    <t>Chọn Đề tài</t>
+  </si>
+  <si>
+    <t>Họp nhóm</t>
+  </si>
+  <si>
+    <t>Phùng Thị Thùy, Tạ Xuân Kiên</t>
+  </si>
+  <si>
+    <t>Hồ Thị Cẩm Ly và Nguyễn Hồng Huy góp ý, bổ sung =&gt; thống nhất.</t>
+  </si>
+  <si>
+    <t>Hồ Thị Cẩm Ly</t>
+  </si>
+  <si>
+    <t>Nguyễn Hồng Huy</t>
+  </si>
+  <si>
+    <t>Làm slide báo cáo Tuần 4: Dựa trên các nội dung đã thống nhất ở mục 1,2,3.</t>
+  </si>
+  <si>
+    <t>Có đưa vào nhóm thông nhất.</t>
+  </si>
+  <si>
+    <t>Tạo database tên sql: lấy thông các bảng từ đặc tả.</t>
+  </si>
+  <si>
+    <t>Đặc tả ứng dụng: mô tả chức năng, demo database.</t>
+  </si>
+  <si>
+    <t>Duyệt lại slide và báo cáo với giảng viên.</t>
+  </si>
+  <si>
+    <t>Triển khai lại góp ý của giảng viên cho nhóm.</t>
   </si>
 </sst>
 </file>
@@ -224,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -255,6 +303,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,7 +633,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -635,7 +695,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -651,7 +711,9 @@
       <c r="D5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -687,10 +749,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE42D72E-A764-4E60-B49B-59F8C7481DD9}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -698,7 +760,7 @@
     <col min="1" max="1" width="8.7109375" style="2"/>
     <col min="2" max="2" width="35" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25" style="2" customWidth="1"/>
     <col min="5" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
@@ -713,7 +775,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -722,7 +784,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -770,7 +832,9 @@
       <c r="C7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -782,7 +846,9 @@
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
@@ -797,13 +863,13 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="D10" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -817,19 +883,120 @@
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>3</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="8"/>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>1</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>2</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>3</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>4</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>5</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>6</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A1:D1"/>

--- a/Kế hoạch nhóm 01.xlsx
+++ b/Kế hoạch nhóm 01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\KÌ 5\Thực hành làm việc nhóm\Practice-teamwork-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3156D018-7656-4C13-8AFA-66FE24DAB768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B8A9C4-F8D7-4350-B34B-18F9E45B5C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{134E03A3-BC9C-415A-A0C3-5D97F6D28BA7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{134E03A3-BC9C-415A-A0C3-5D97F6D28BA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Kế hoạch chung" sheetId="1" r:id="rId1"/>
@@ -162,9 +162,6 @@
     <t>Có đưa vào nhóm thông nhất.</t>
   </si>
   <si>
-    <t>Tạo database tên sql: lấy thông các bảng từ đặc tả.</t>
-  </si>
-  <si>
     <t>Đặc tả ứng dụng: mô tả chức năng, demo database.</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>Triển khai lại góp ý của giảng viên cho nhóm.</t>
+  </si>
+  <si>
+    <t>Tạo database tên sql: lấy thông tin các bảng từ đặc tả.</t>
   </si>
 </sst>
 </file>
@@ -632,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D600740-61C1-4733-94B3-8D5D75A4AFA3}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE42D72E-A764-4E60-B49B-59F8C7481DD9}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>36</v>
@@ -951,7 +951,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>38</v>
@@ -975,7 +975,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>20</v>
@@ -989,7 +989,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="15"/>

--- a/Kế hoạch nhóm 01.xlsx
+++ b/Kế hoạch nhóm 01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\KÌ 5\Thực hành làm việc nhóm\Practice-teamwork-01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DỮ LIỆU\KÌ 5\Thực hành làm việc nhóm\Practice-teamwork-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B8A9C4-F8D7-4350-B34B-18F9E45B5C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E9A552-E93D-4263-9CFA-DC8FE03CBD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{134E03A3-BC9C-415A-A0C3-5D97F6D28BA7}"/>
   </bookViews>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
   <si>
     <t>KẾ HOẠCH CHUNG</t>
   </si>
   <si>
-    <t>Nhóm</t>
-  </si>
-  <si>
     <t>Số TT</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>12/9/2022-18/9/2022</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>Tuần: 3</t>
   </si>
   <si>
@@ -171,14 +165,110 @@
     <t>Triển khai lại góp ý của giảng viên cho nhóm.</t>
   </si>
   <si>
-    <t>Tạo database tên sql: lấy thông tin các bảng từ đặc tả.</t>
+    <t>Tạo database trên sql: lấy thông tin các bảng từ đặc tả.</t>
+  </si>
+  <si>
+    <t>19/9/2022-25/9/2022</t>
+  </si>
+  <si>
+    <t>26/9/2022-2/10/2022</t>
+  </si>
+  <si>
+    <t>3/10/2022-9/10/2022</t>
+  </si>
+  <si>
+    <t>10/10/2022-16/10/2022</t>
+  </si>
+  <si>
+    <t>17/10/2022-23/10/2022</t>
+  </si>
+  <si>
+    <t>31/10/2022-6/11/2022</t>
+  </si>
+  <si>
+    <t>7/11/2022-13/11/2022</t>
+  </si>
+  <si>
+    <t>14/11/2022-20/11/2022</t>
+  </si>
+  <si>
+    <t>21/11/2022-27/11/2022</t>
+  </si>
+  <si>
+    <t>28/11/2022-4/12/2022</t>
+  </si>
+  <si>
+    <t>24/10/2022-30/10/2022</t>
+  </si>
+  <si>
+    <t>5/12/2022-11/12/2022</t>
+  </si>
+  <si>
+    <t>12/12/2022-18/12/2022</t>
+  </si>
+  <si>
+    <t>Kiểm tra lỗi và sửa lỗi</t>
+  </si>
+  <si>
+    <t>Code: Giao diện, chức năng quản lý (phần nhập thông tin)</t>
+  </si>
+  <si>
+    <t>Code: Chức năng quản lý (phần tra cứu)</t>
+  </si>
+  <si>
+    <t>Code: Hiển thị, chức năng quản lý (xử lý nhập bãi)</t>
+  </si>
+  <si>
+    <t>Code: Giao diện, chức năng quản lý (xử lý xuất bãi, hóa đơn)</t>
+  </si>
+  <si>
+    <t>Kiểm tra lỗi và sửa lỗi (tt);</t>
+  </si>
+  <si>
+    <t>Làm báo cáo</t>
+  </si>
+  <si>
+    <t>Làm báo cáo (tt)</t>
+  </si>
+  <si>
+    <t>Duyệt lại phần mềm và báo cáo.</t>
+  </si>
+  <si>
+    <t>Báo cáo kết qủa cuối với giảng viên</t>
+  </si>
+  <si>
+    <t>Làm quen mô hình. Xây dựng khung project, bắt đầu code.</t>
+  </si>
+  <si>
+    <t>Code: Giao diện, chức năng đăng nhập (tt)</t>
+  </si>
+  <si>
+    <t>Đặc tả chi tiết, xác định công nghệ, database, phác thảo màn hình</t>
+  </si>
+  <si>
+    <t>Tuần: 5</t>
+  </si>
+  <si>
+    <t>Từ ngày đến ngày: 19/9/2022-25/9/2022</t>
+  </si>
+  <si>
+    <t>Chọn mô hình, công nghệ</t>
+  </si>
+  <si>
+    <t>Đặc tả chi tiết (chức năng, màn hình, cách thức phần mền hoạt động).</t>
+  </si>
+  <si>
+    <t>Vẽ use case, sửa database nếu có sự thay đổi so với tuần 3</t>
+  </si>
+  <si>
+    <t>Sửa slide báo cáo tuần: Dựa trên các nội dung đã thống nhất ở mục 1,2,3.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,13 +289,32 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -272,19 +381,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -292,9 +395,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -304,17 +434,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -630,118 +771,297 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D600740-61C1-4733-94B3-8D5D75A4AFA3}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="2"/>
-    <col min="3" max="3" width="21.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="61.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="12"/>
+    <col min="3" max="3" width="27.28515625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="67.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="C5" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7">
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="B6" s="11">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11">
         <v>6</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="C7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12" s="11">
+        <v>11</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="11">
+        <v>12</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>11</v>
+      </c>
+      <c r="B14" s="11">
+        <v>13</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>12</v>
+      </c>
+      <c r="B15" s="11">
+        <v>14</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>13</v>
+      </c>
+      <c r="B16" s="11">
+        <v>15</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>14</v>
+      </c>
+      <c r="B17" s="11">
         <v>16</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7">
-        <v>4</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>15</v>
+      </c>
+      <c r="B18" s="11">
         <v>17</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="C18" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -749,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE42D72E-A764-4E60-B49B-59F8C7481DD9}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -764,245 +1084,354 @@
     <col min="5" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>3</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="15" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="D15" s="23"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="D16" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>1</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>3</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="B20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>5</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>6</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="24" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="B25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>1</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>2</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>3</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>4</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>5</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>2</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>3</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="13"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
-        <v>1</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="66" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
-        <v>2</v>
-      </c>
-      <c r="B17" s="15" t="s">
+      <c r="D30" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <v>6</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
-        <v>3</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
-        <v>4</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="15"/>
-    </row>
-    <row r="20" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
-        <v>5</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
-        <v>6</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A5:E5"/>
+  <mergeCells count="7">
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A6:E6"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A9:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Kế hoạch nhóm 01.xlsx
+++ b/Kế hoạch nhóm 01.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DỮ LIỆU\KÌ 5\Thực hành làm việc nhóm\Practice-teamwork-01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\thlvn\Practice-teamwork-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E9A552-E93D-4263-9CFA-DC8FE03CBD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{134E03A3-BC9C-415A-A0C3-5D97F6D28BA7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Kế hoạch chung" sheetId="1" r:id="rId1"/>
     <sheet name="Kế hoạch chi tiết" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -258,16 +257,16 @@
     <t>Đặc tả chi tiết (chức năng, màn hình, cách thức phần mền hoạt động).</t>
   </si>
   <si>
-    <t>Vẽ use case, sửa database nếu có sự thay đổi so với tuần 3</t>
-  </si>
-  <si>
     <t>Sửa slide báo cáo tuần: Dựa trên các nội dung đã thống nhất ở mục 1,2,3.</t>
+  </si>
+  <si>
+    <t>Vẽ use case, sửa database nếu có sự thay đổi so với tuần 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -419,21 +418,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -454,8 +438,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -770,7 +769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D600740-61C1-4733-94B3-8D5D75A4AFA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -788,22 +787,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -866,7 +865,7 @@
       <c r="C6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="15" t="s">
         <v>69</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -883,7 +882,7 @@
       <c r="C7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="15" t="s">
         <v>67</v>
       </c>
       <c r="E7" s="6"/>
@@ -913,7 +912,7 @@
       <c r="C9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="16" t="s">
         <v>58</v>
       </c>
       <c r="E9" s="6"/>
@@ -928,7 +927,7 @@
       <c r="C10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="16" t="s">
         <v>60</v>
       </c>
       <c r="E10" s="6"/>
@@ -943,7 +942,7 @@
       <c r="C11" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="16" t="s">
         <v>61</v>
       </c>
       <c r="E11" s="6"/>
@@ -1054,7 +1053,7 @@
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="22"/>
+      <c r="B19" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1068,11 +1067,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE42D72E-A764-4E60-B49B-59F8C7481DD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1085,30 +1084,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1118,22 +1117,22 @@
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="24" t="s">
+    <row r="5" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -1164,7 +1163,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="26">
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1178,7 +1177,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
@@ -1188,7 +1187,7 @@
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
@@ -1200,7 +1199,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
@@ -1221,15 +1220,15 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="15" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24" t="s">
+    <row r="15" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="23"/>
+      <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -1304,7 +1303,7 @@
       <c r="B21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="24" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -1318,18 +1317,18 @@
       <c r="B22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="16"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="8"/>
     </row>
-    <row r="24" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="24" t="s">
+    <row r="24" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="23"/>
+      <c r="D24" s="18"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
@@ -1378,7 +1377,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>36</v>
@@ -1390,7 +1389,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>37</v>
@@ -1404,7 +1403,7 @@
       <c r="B30" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="24" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="8" t="s">
@@ -1418,7 +1417,7 @@
       <c r="B31" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="16"/>
+      <c r="C31" s="24"/>
       <c r="D31" s="8"/>
     </row>
   </sheetData>

--- a/Kế hoạch nhóm 01.xlsx
+++ b/Kế hoạch nhóm 01.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\thlvn\Practice-teamwork-01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUDY\KÌ 5\Thực hành làm việc nhóm\Practice-teamwork-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E8E2C2-D07A-47D3-8086-3516CADF5593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kế hoạch chung" sheetId="1" r:id="rId1"/>
@@ -20,20 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="86">
   <si>
     <t>KẾ HOẠCH CHUNG</t>
   </si>
@@ -261,12 +254,42 @@
   </si>
   <si>
     <t>Vẽ use case, sửa database nếu có sự thay đổi so với tuần 4</t>
+  </si>
+  <si>
+    <t>Tuần: 6</t>
+  </si>
+  <si>
+    <t>Từ ngày đến ngày: 26/9/2022-2/10/2022</t>
+  </si>
+  <si>
+    <t>Làm quen mô hình</t>
+  </si>
+  <si>
+    <t>Xây dựng khung project</t>
+  </si>
+  <si>
+    <t>Làm giao diện đăng nhập</t>
+  </si>
+  <si>
+    <t>Code chức năng đăng nhập</t>
+  </si>
+  <si>
+    <t>Tổng hợp và báo cáo với gv</t>
+  </si>
+  <si>
+    <t>Nhóm trưởng</t>
+  </si>
+  <si>
+    <t>WPF</t>
+  </si>
+  <si>
+    <t>MVVM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -400,9 +423,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -414,9 +434,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -444,6 +461,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -455,6 +478,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,18 +801,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="12"/>
-    <col min="3" max="3" width="27.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="11"/>
+    <col min="3" max="3" width="27.28515625" style="11" customWidth="1"/>
     <col min="4" max="4" width="67.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="8.7109375" style="2"/>
@@ -808,10 +840,10 @@
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -825,10 +857,10 @@
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -842,10 +874,10 @@
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -859,13 +891,13 @@
       <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>5</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>69</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -876,13 +908,13 @@
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>6</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>67</v>
       </c>
       <c r="E7" s="6"/>
@@ -891,10 +923,10 @@
       <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>7</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -906,13 +938,13 @@
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>8</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>58</v>
       </c>
       <c r="E9" s="6"/>
@@ -921,13 +953,13 @@
       <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>9</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="14" t="s">
         <v>60</v>
       </c>
       <c r="E10" s="6"/>
@@ -936,13 +968,13 @@
       <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>10</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="14" t="s">
         <v>61</v>
       </c>
       <c r="E11" s="6"/>
@@ -951,10 +983,10 @@
       <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>11</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>49</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -966,10 +998,10 @@
       <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>12</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>50</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -981,10 +1013,10 @@
       <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>13</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -996,10 +1028,10 @@
       <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>14</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -1011,10 +1043,10 @@
       <c r="A16" s="5">
         <v>13</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>15</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -1026,10 +1058,10 @@
       <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>16</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -1041,10 +1073,10 @@
       <c r="A18" s="5">
         <v>15</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>17</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -1053,7 +1085,7 @@
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="17"/>
+      <c r="B19" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1067,16 +1099,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="2"/>
+    <col min="1" max="1" width="8.7109375" style="31"/>
     <col min="2" max="2" width="35" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="2" customWidth="1"/>
@@ -1111,21 +1143,22 @@
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
@@ -1220,15 +1253,15 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="15" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19" t="s">
+    <row r="15" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="18"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -1245,7 +1278,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="22">
         <v>1</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -1259,7 +1292,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="66" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="22">
         <v>2</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1273,7 +1306,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="22">
         <v>3</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -1285,7 +1318,7 @@
       <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="22">
         <v>4</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1297,7 +1330,7 @@
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="22">
         <v>5</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -1311,7 +1344,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="22">
         <v>6</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1320,15 +1353,15 @@
       <c r="C22" s="24"/>
       <c r="D22" s="8"/>
     </row>
-    <row r="24" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19" t="s">
+    <row r="24" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="18"/>
+      <c r="D24" s="16"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
@@ -1345,7 +1378,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
+      <c r="A26" s="22">
         <v>1</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -1359,7 +1392,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="66" x14ac:dyDescent="0.25">
-      <c r="A27" s="14">
+      <c r="A27" s="22">
         <v>2</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -1373,7 +1406,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A28" s="14">
+      <c r="A28" s="22">
         <v>3</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -1385,7 +1418,7 @@
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
+      <c r="A29" s="22">
         <v>4</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -1397,7 +1430,7 @@
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A30" s="14">
+      <c r="A30" s="22">
         <v>5</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -1411,7 +1444,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
+      <c r="A31" s="22">
         <v>6</v>
       </c>
       <c r="B31" s="8" t="s">
@@ -1419,6 +1452,94 @@
       </c>
       <c r="C31" s="24"/>
       <c r="D31" s="8"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="30"/>
+      <c r="B33" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="16"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="22">
+        <v>1</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>2</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>3</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>4</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>5</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Kế hoạch nhóm 01.xlsx
+++ b/Kế hoạch nhóm 01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUDY\KÌ 5\Thực hành làm việc nhóm\Practice-teamwork-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E8E2C2-D07A-47D3-8086-3516CADF5593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8173E706-67DD-4F5F-8629-54B8630237BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kế hoạch chung" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="85">
   <si>
     <t>KẾ HOẠCH CHUNG</t>
   </si>
@@ -199,21 +199,6 @@
     <t>12/12/2022-18/12/2022</t>
   </si>
   <si>
-    <t>Kiểm tra lỗi và sửa lỗi</t>
-  </si>
-  <si>
-    <t>Code: Giao diện, chức năng quản lý (phần nhập thông tin)</t>
-  </si>
-  <si>
-    <t>Code: Chức năng quản lý (phần tra cứu)</t>
-  </si>
-  <si>
-    <t>Code: Hiển thị, chức năng quản lý (xử lý nhập bãi)</t>
-  </si>
-  <si>
-    <t>Code: Giao diện, chức năng quản lý (xử lý xuất bãi, hóa đơn)</t>
-  </si>
-  <si>
     <t>Kiểm tra lỗi và sửa lỗi (tt);</t>
   </si>
   <si>
@@ -229,15 +214,9 @@
     <t>Báo cáo kết qủa cuối với giảng viên</t>
   </si>
   <si>
-    <t>Làm quen mô hình. Xây dựng khung project, bắt đầu code.</t>
-  </si>
-  <si>
     <t>Code: Giao diện, chức năng đăng nhập (tt)</t>
   </si>
   <si>
-    <t>Đặc tả chi tiết, xác định công nghệ, database, phác thảo màn hình</t>
-  </si>
-  <si>
     <t>Tuần: 5</t>
   </si>
   <si>
@@ -262,28 +241,46 @@
     <t>Từ ngày đến ngày: 26/9/2022-2/10/2022</t>
   </si>
   <si>
-    <t>Làm quen mô hình</t>
-  </si>
-  <si>
-    <t>Xây dựng khung project</t>
-  </si>
-  <si>
-    <t>Làm giao diện đăng nhập</t>
-  </si>
-  <si>
-    <t>Code chức năng đăng nhập</t>
-  </si>
-  <si>
-    <t>Tổng hợp và báo cáo với gv</t>
+    <t>Bảng mô tả chức năng đăng nhập</t>
+  </si>
+  <si>
+    <t>Bảng mô tả chức năng check in</t>
+  </si>
+  <si>
+    <t>Bảng mô tả chức năng check out</t>
+  </si>
+  <si>
+    <t>Bảng mô tả chức năng thống kê</t>
+  </si>
+  <si>
+    <t>Đặc tả chi tiết, xác định công nghệ, phác thảo màn hình</t>
+  </si>
+  <si>
+    <t>Lập bảng mô tả chức năng, biểu đồ lớp, biểu đồ trạng thái</t>
+  </si>
+  <si>
+    <t>Code: Giao diện, chức năng quản lý (phần nhập thông tin, nhập bãi)</t>
+  </si>
+  <si>
+    <t>Code: Giao diện, chức năng quản lý (xử lý xuất bãi, xử lý hóa đơn)</t>
+  </si>
+  <si>
+    <t>Code: Chức năng quản lý (phần tra cứu, thống kê)</t>
+  </si>
+  <si>
+    <t>Biểu đồ gói, biểu đồ triển khai, bắt đầu code theo mô hình</t>
+  </si>
+  <si>
+    <t>Biểu đồ lớp, biểu đồ trạng thái</t>
+  </si>
+  <si>
+    <t>Báo cáo và triển khai lại góp ý của giảng viên cho nhóm.</t>
   </si>
   <si>
     <t>Nhóm trưởng</t>
   </si>
   <si>
-    <t>WPF</t>
-  </si>
-  <si>
-    <t>MVVM</t>
+    <t>Biểu đồ lớp chi tiết, biểu đồ hoạt động, xây dựng database</t>
   </si>
 </sst>
 </file>
@@ -403,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -461,6 +458,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -479,15 +485,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -804,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -819,22 +821,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -898,7 +900,7 @@
         <v>44</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>26</v>
@@ -914,10 +916,12 @@
       <c r="C7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -929,8 +933,8 @@
       <c r="C8" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>68</v>
+      <c r="D8" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="E8" s="6"/>
     </row>
@@ -944,8 +948,8 @@
       <c r="C9" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>58</v>
+      <c r="D9" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="E9" s="6"/>
     </row>
@@ -959,8 +963,8 @@
       <c r="C10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>60</v>
+      <c r="D10" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E10" s="6"/>
     </row>
@@ -975,7 +979,7 @@
         <v>54</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E11" s="6"/>
     </row>
@@ -989,8 +993,8 @@
       <c r="C12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>59</v>
+      <c r="D12" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="E12" s="6"/>
     </row>
@@ -1005,7 +1009,7 @@
         <v>50</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="E13" s="6"/>
     </row>
@@ -1020,7 +1024,7 @@
         <v>51</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E14" s="6"/>
     </row>
@@ -1035,7 +1039,7 @@
         <v>52</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E15" s="6"/>
     </row>
@@ -1050,7 +1054,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E16" s="6"/>
     </row>
@@ -1065,7 +1069,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E17" s="6"/>
     </row>
@@ -1080,7 +1084,7 @@
         <v>56</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E18" s="6"/>
     </row>
@@ -1100,15 +1104,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="31"/>
+    <col min="1" max="1" width="8.7109375" style="25"/>
     <col min="2" max="2" width="35" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="2" customWidth="1"/>
@@ -1116,30 +1120,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1150,7 +1154,7 @@
       <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="17" t="s">
         <v>8</v>
       </c>
@@ -1161,11 +1165,11 @@
       <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -1196,7 +1200,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
+      <c r="A9" s="29">
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1210,7 +1214,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
@@ -1220,7 +1224,7 @@
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
@@ -1232,7 +1236,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
@@ -1254,7 +1258,7 @@
       <c r="D13" s="6"/>
     </row>
     <row r="15" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="17" t="s">
         <v>28</v>
       </c>
@@ -1336,7 +1340,7 @@
       <c r="B21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -1350,16 +1354,16 @@
       <c r="B22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="24"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="8"/>
     </row>
     <row r="24" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D24" s="16"/>
     </row>
@@ -1382,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>16</v>
@@ -1396,7 +1400,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>34</v>
@@ -1410,7 +1414,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>36</v>
@@ -1422,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>37</v>
@@ -1436,7 +1440,7 @@
       <c r="B30" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="8" t="s">
@@ -1450,16 +1454,16 @@
       <c r="B31" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="24"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="17" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D33" s="16"/>
     </row>
@@ -1482,10 +1486,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D35" s="8"/>
     </row>
@@ -1494,7 +1498,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>20</v>
@@ -1506,40 +1510,48 @@
         <v>3</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>84</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>4</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="33">
+        <v>5</v>
+      </c>
+      <c r="B39" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>5</v>
-      </c>
-      <c r="B39" s="6" t="s">
+      <c r="C39" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="34"/>
+    </row>
+    <row r="40" spans="1:4" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>6</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="6"/>
+      <c r="D40" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Kế hoạch nhóm 01.xlsx
+++ b/Kế hoạch nhóm 01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUDY\KÌ 5\Thực hành làm việc nhóm\Practice-teamwork-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8173E706-67DD-4F5F-8629-54B8630237BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD0CB33-3DC8-4DEF-B040-5485780ACBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -807,7 +807,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1107,7 +1107,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/Kế hoạch nhóm 01.xlsx
+++ b/Kế hoạch nhóm 01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUDY\KÌ 5\Thực hành làm việc nhóm\Practice-teamwork-01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KÌ 5\Thực hành làm việc nhóm\Practice-teamwork-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD0CB33-3DC8-4DEF-B040-5485780ACBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDEC7C6-810C-4E44-8F70-B22FE06ABDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kế hoạch chung" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="96">
   <si>
     <t>KẾ HOẠCH CHUNG</t>
   </si>
@@ -281,6 +281,39 @@
   </si>
   <si>
     <t>Biểu đồ lớp chi tiết, biểu đồ hoạt động, xây dựng database</t>
+  </si>
+  <si>
+    <t>Tuần: 7</t>
+  </si>
+  <si>
+    <t>Từ ngày đến ngày: 3/10/2022-9/10/2022</t>
+  </si>
+  <si>
+    <t>Xây dựng database</t>
+  </si>
+  <si>
+    <t>Biểu đồ lớp chi tiết</t>
+  </si>
+  <si>
+    <t>Tạ Xuân Kiên, Phùng Thị Thùy</t>
+  </si>
+  <si>
+    <t>Biểu đồ hoạt động tìm kiếm, đăng nhập</t>
+  </si>
+  <si>
+    <t>Biểu đồ hoạt động: check in, check out, thống kê</t>
+  </si>
+  <si>
+    <t>Các bạn khác góp ý, hỗ trợ</t>
+  </si>
+  <si>
+    <t>Biểu đồ hoạt động: Thêm, sửa, xóa (tài khoản, bãi gửi)</t>
+  </si>
+  <si>
+    <t>Tổng kết lại, báo cáo và triển khai lại góp ý của giảng viên cho nhóm.</t>
+  </si>
+  <si>
+    <t>biểu đồ thêm sửa xóa minh họa chung cho tài khoản và bãi gửi...</t>
   </si>
 </sst>
 </file>
@@ -400,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -467,29 +500,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -806,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -821,22 +860,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -936,7 +975,9 @@
       <c r="D8" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -1104,46 +1145,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="25"/>
     <col min="2" max="2" width="35" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="25" style="2" customWidth="1"/>
     <col min="5" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1165,11 +1206,11 @@
       <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -1200,7 +1241,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
+      <c r="A9" s="33">
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1214,7 +1255,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
@@ -1224,7 +1265,7 @@
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
@@ -1236,7 +1277,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
@@ -1340,7 +1381,7 @@
       <c r="B21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -1354,7 +1395,7 @@
       <c r="B22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="27"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="8"/>
     </row>
     <row r="24" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -1440,7 +1481,7 @@
       <c r="B30" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="8" t="s">
@@ -1454,7 +1495,7 @@
       <c r="B31" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="27"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1530,18 +1571,18 @@
       <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="33">
+      <c r="A39" s="28">
         <v>5</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="34"/>
-    </row>
-    <row r="40" spans="1:4" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="29"/>
+    </row>
+    <row r="40" spans="1:4" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>6</v>
       </c>
@@ -1552,6 +1593,106 @@
         <v>83</v>
       </c>
       <c r="D40" s="6"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="24"/>
+      <c r="B42" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="16"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="26">
+        <v>1</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A45" s="26">
+        <v>2</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>3</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="36"/>
+    </row>
+    <row r="47" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>4</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>5</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="36"/>
+    </row>
+    <row r="49" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>6</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Kế hoạch nhóm 01.xlsx
+++ b/Kế hoạch nhóm 01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KÌ 5\Thực hành làm việc nhóm\Practice-teamwork-01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Practice-teamwork-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDEC7C6-810C-4E44-8F70-B22FE06ABDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BF9C7D-1CB7-46A4-B9C7-6C6C12EE789D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,28 @@
     <sheet name="Kế hoạch chung" sheetId="1" r:id="rId1"/>
     <sheet name="Kế hoạch chi tiết" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="109">
   <si>
     <t>KẾ HOẠCH CHUNG</t>
   </si>
@@ -199,12 +210,6 @@
     <t>12/12/2022-18/12/2022</t>
   </si>
   <si>
-    <t>Kiểm tra lỗi và sửa lỗi (tt);</t>
-  </si>
-  <si>
-    <t>Làm báo cáo</t>
-  </si>
-  <si>
     <t>Làm báo cáo (tt)</t>
   </si>
   <si>
@@ -214,9 +219,6 @@
     <t>Báo cáo kết qủa cuối với giảng viên</t>
   </si>
   <si>
-    <t>Code: Giao diện, chức năng đăng nhập (tt)</t>
-  </si>
-  <si>
     <t>Tuần: 5</t>
   </si>
   <si>
@@ -262,15 +264,6 @@
     <t>Code: Giao diện, chức năng quản lý (phần nhập thông tin, nhập bãi)</t>
   </si>
   <si>
-    <t>Code: Giao diện, chức năng quản lý (xử lý xuất bãi, xử lý hóa đơn)</t>
-  </si>
-  <si>
-    <t>Code: Chức năng quản lý (phần tra cứu, thống kê)</t>
-  </si>
-  <si>
-    <t>Biểu đồ gói, biểu đồ triển khai, bắt đầu code theo mô hình</t>
-  </si>
-  <si>
     <t>Biểu đồ lớp, biểu đồ trạng thái</t>
   </si>
   <si>
@@ -314,13 +307,71 @@
   </si>
   <si>
     <t>biểu đồ thêm sửa xóa minh họa chung cho tài khoản và bãi gửi...</t>
+  </si>
+  <si>
+    <t>Kiểm tra lỗi và sửa lỗi</t>
+  </si>
+  <si>
+    <t>Code: Giao diện, chức năng quản lý (tìm kiếm, xử lý xuất bãi, xử lý hóa đơn)</t>
+  </si>
+  <si>
+    <t>Kiểm tra lỗi và sửa lỗi (tt) + làm báo cáo</t>
+  </si>
+  <si>
+    <t>Code: Chức năng quản lý admin (thống kê, tra cứu, thêm sửa xóa nv + bãi gửi)</t>
+  </si>
+  <si>
+    <t>Bổ sung biểu đồ lớp, làm biểu đồ gói, biểu đồ tuần tự, vẽ phác thảo màn hình</t>
+  </si>
+  <si>
+    <t>Code: Giao diện, chức năng đăng nhập, hoàn thiện khung project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Đặc tả ca sử dụng (xây dựng scenario):</t>
+  </si>
+  <si>
+    <t>Ca đăng nhập, check in</t>
+  </si>
+  <si>
+    <t>Ca check out (bao gồm xác nhận hóa đơn)</t>
+  </si>
+  <si>
+    <t>Ca tìm kiếm, thống kê</t>
+  </si>
+  <si>
+    <t>Ca thêm, sửa, xóa (nhân viên, bãi gửi)</t>
+  </si>
+  <si>
+    <t>Biểu đồ lớp khái quát</t>
+  </si>
+  <si>
+    <t>Bổ sung biểu đồ lớp chi tiết</t>
+  </si>
+  <si>
+    <t>Vẽ biểu đồ tuần tự, gói</t>
+  </si>
+  <si>
+    <t>Phác thảo màn hình</t>
+  </si>
+  <si>
+    <t>Hoàn thành trước khi họp nhóm</t>
+  </si>
+  <si>
+    <t>Họp nhóm, duyệt lại các scenario</t>
+  </si>
+  <si>
+    <t>Tuần: 8</t>
+  </si>
+  <si>
+    <t>Từ ngày đến ngày: 10/10/2022-16/10/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,6 +401,13 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -433,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -508,6 +566,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -526,8 +587,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -845,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -860,22 +921,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -939,7 +1000,7 @@
         <v>44</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>26</v>
@@ -956,7 +1017,7 @@
         <v>45</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>26</v>
@@ -973,13 +1034,13 @@
         <v>46</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -989,8 +1050,8 @@
       <c r="C9" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>80</v>
+      <c r="D9" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="E9" s="6"/>
     </row>
@@ -1005,7 +1066,7 @@
         <v>48</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="E10" s="6"/>
     </row>
@@ -1020,11 +1081,11 @@
         <v>54</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -1034,12 +1095,12 @@
       <c r="C12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>78</v>
+      <c r="D12" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -1049,8 +1110,8 @@
       <c r="C13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>79</v>
+      <c r="D13" s="13" t="s">
+        <v>93</v>
       </c>
       <c r="E13" s="6"/>
     </row>
@@ -1065,7 +1126,7 @@
         <v>51</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="E14" s="6"/>
     </row>
@@ -1080,7 +1141,7 @@
         <v>52</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="E15" s="6"/>
     </row>
@@ -1095,7 +1156,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E16" s="6"/>
     </row>
@@ -1110,7 +1171,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E17" s="6"/>
     </row>
@@ -1125,7 +1186,7 @@
         <v>56</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E18" s="6"/>
     </row>
@@ -1145,46 +1206,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="25"/>
-    <col min="2" max="2" width="35" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="42.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="25" style="2" customWidth="1"/>
     <col min="5" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1206,11 +1267,11 @@
       <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -1241,7 +1302,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
+      <c r="A9" s="34">
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1255,7 +1316,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
@@ -1265,7 +1326,7 @@
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
@@ -1277,7 +1338,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
@@ -1381,7 +1442,7 @@
       <c r="B21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="32" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -1395,16 +1456,16 @@
       <c r="B22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="31"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="8"/>
     </row>
     <row r="24" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D24" s="16"/>
     </row>
@@ -1427,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>16</v>
@@ -1441,7 +1502,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>34</v>
@@ -1455,7 +1516,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>36</v>
@@ -1467,7 +1528,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>37</v>
@@ -1481,7 +1542,7 @@
       <c r="B30" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="32" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="8" t="s">
@@ -1495,16 +1556,16 @@
       <c r="B31" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="31"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
       <c r="B33" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D33" s="16"/>
     </row>
@@ -1527,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>37</v>
@@ -1539,7 +1600,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>20</v>
@@ -1551,7 +1612,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>18</v>
@@ -1563,7 +1624,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>36</v>
@@ -1575,7 +1636,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C39" s="29" t="s">
         <v>16</v>
@@ -1587,20 +1648,20 @@
         <v>6</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D40" s="6"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="24"/>
       <c r="B42" s="17" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D42" s="16"/>
     </row>
@@ -1623,10 +1684,10 @@
         <v>1</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D44" s="6"/>
     </row>
@@ -1635,13 +1696,13 @@
         <v>2</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="30" t="s">
         <v>20</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="33" x14ac:dyDescent="0.25">
@@ -1649,25 +1710,25 @@
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="36"/>
+      <c r="D46" s="30"/>
     </row>
     <row r="47" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>4</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="30" t="s">
         <v>36</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="33" x14ac:dyDescent="0.25">
@@ -1675,27 +1736,175 @@
         <v>5</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="36"/>
+      <c r="D48" s="30"/>
     </row>
     <row r="49" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>6</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" s="36" t="s">
-        <v>83</v>
+        <v>88</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>77</v>
       </c>
       <c r="D49" s="6"/>
     </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="24"/>
+      <c r="B51" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="16"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>1</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="37">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="32"/>
+    </row>
+    <row r="55" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A55" s="37">
+        <v>1.2</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="32"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="37">
+        <v>1.3</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="32"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="37">
+        <v>1.4</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="32"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>2</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="32"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>3</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>4</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="32"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>5</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="32"/>
+    </row>
+    <row r="62" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>6</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D53:D58"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="A6:E6"/>

--- a/Kế hoạch nhóm 01.xlsx
+++ b/Kế hoạch nhóm 01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Practice-teamwork-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BF9C7D-1CB7-46A4-B9C7-6C6C12EE789D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D12034E-7710-4C3B-A3C1-9F18FFBD444F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -569,6 +569,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -586,9 +589,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -921,22 +921,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1209,7 +1209,7 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1222,30 +1222,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1267,11 +1267,11 @@
       <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -1302,7 +1302,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="34">
+      <c r="A9" s="35">
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1316,7 +1316,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
@@ -1326,7 +1326,7 @@
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
@@ -1338,7 +1338,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
@@ -1442,7 +1442,7 @@
       <c r="B21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="33" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -1456,7 +1456,7 @@
       <c r="B22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="32"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="8"/>
     </row>
     <row r="24" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>4</v>
       </c>
@@ -1542,7 +1542,7 @@
       <c r="B30" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="33" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="8" t="s">
@@ -1556,7 +1556,7 @@
       <c r="B31" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="32"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="D48" s="30"/>
     </row>
-    <row r="49" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>6</v>
       </c>
@@ -1787,12 +1787,12 @@
         <v>96</v>
       </c>
       <c r="C53" s="10"/>
-      <c r="D53" s="32" t="s">
+      <c r="D53" s="33" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="37">
+      <c r="A54" s="31">
         <v>1.1000000000000001</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -1801,10 +1801,10 @@
       <c r="C54" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="32"/>
+      <c r="D54" s="33"/>
     </row>
     <row r="55" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A55" s="37">
+      <c r="A55" s="31">
         <v>1.2</v>
       </c>
       <c r="B55" s="13" t="s">
@@ -1813,10 +1813,10 @@
       <c r="C55" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="32"/>
+      <c r="D55" s="33"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="37">
+      <c r="A56" s="31">
         <v>1.3</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -1825,10 +1825,10 @@
       <c r="C56" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="32"/>
+      <c r="D56" s="33"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="37">
+      <c r="A57" s="31">
         <v>1.4</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -1837,7 +1837,7 @@
       <c r="C57" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="32"/>
+      <c r="D57" s="33"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
@@ -1849,7 +1849,7 @@
       <c r="C58" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="32"/>
+      <c r="D58" s="33"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
@@ -1861,7 +1861,7 @@
       <c r="C59" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="32" t="s">
+      <c r="D59" s="33" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1875,7 +1875,7 @@
       <c r="C60" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="32"/>
+      <c r="D60" s="33"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
@@ -1887,7 +1887,7 @@
       <c r="C61" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="32"/>
+      <c r="D61" s="33"/>
     </row>
     <row r="62" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
@@ -1903,15 +1903,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:A12"/>
     <mergeCell ref="D59:D61"/>
     <mergeCell ref="D53:D58"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Kế hoạch nhóm 01.xlsx
+++ b/Kế hoạch nhóm 01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Practice-teamwork-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D12034E-7710-4C3B-A3C1-9F18FFBD444F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9074C81C-517A-46CD-B22F-F5442A715687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="122">
   <si>
     <t>KẾ HOẠCH CHUNG</t>
   </si>
@@ -255,27 +255,15 @@
     <t>Bảng mô tả chức năng thống kê</t>
   </si>
   <si>
-    <t>Đặc tả chi tiết, xác định công nghệ, phác thảo màn hình</t>
-  </si>
-  <si>
-    <t>Lập bảng mô tả chức năng, biểu đồ lớp, biểu đồ trạng thái</t>
-  </si>
-  <si>
     <t>Code: Giao diện, chức năng quản lý (phần nhập thông tin, nhập bãi)</t>
   </si>
   <si>
-    <t>Biểu đồ lớp, biểu đồ trạng thái</t>
-  </si>
-  <si>
     <t>Báo cáo và triển khai lại góp ý của giảng viên cho nhóm.</t>
   </si>
   <si>
     <t>Nhóm trưởng</t>
   </si>
   <si>
-    <t>Biểu đồ lớp chi tiết, biểu đồ hoạt động, xây dựng database</t>
-  </si>
-  <si>
     <t>Tuần: 7</t>
   </si>
   <si>
@@ -291,18 +279,9 @@
     <t>Tạ Xuân Kiên, Phùng Thị Thùy</t>
   </si>
   <si>
-    <t>Biểu đồ hoạt động tìm kiếm, đăng nhập</t>
-  </si>
-  <si>
-    <t>Biểu đồ hoạt động: check in, check out, thống kê</t>
-  </si>
-  <si>
     <t>Các bạn khác góp ý, hỗ trợ</t>
   </si>
   <si>
-    <t>Biểu đồ hoạt động: Thêm, sửa, xóa (tài khoản, bãi gửi)</t>
-  </si>
-  <si>
     <t>Tổng kết lại, báo cáo và triển khai lại góp ý của giảng viên cho nhóm.</t>
   </si>
   <si>
@@ -319,12 +298,6 @@
   </si>
   <si>
     <t>Code: Chức năng quản lý admin (thống kê, tra cứu, thêm sửa xóa nv + bãi gửi)</t>
-  </si>
-  <si>
-    <t>Bổ sung biểu đồ lớp, làm biểu đồ gói, biểu đồ tuần tự, vẽ phác thảo màn hình</t>
-  </si>
-  <si>
-    <t>Code: Giao diện, chức năng đăng nhập, hoàn thiện khung project</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -365,6 +338,72 @@
   </si>
   <si>
     <t>Từ ngày đến ngày: 10/10/2022-16/10/2022</t>
+  </si>
+  <si>
+    <t>Bổ sung biểu đồ lớp, làm biểu đồ gói, biểu đồ tuần tự, vẽ phác thảo màn hình, biểu đồ hoạt động</t>
+  </si>
+  <si>
+    <t>Biểu đồ hoạt động</t>
+  </si>
+  <si>
+    <t>Biểu đồ trạng thái tìm kiếm, đăng nhập</t>
+  </si>
+  <si>
+    <t>Biểu đồ trạng thái: Thêm, sửa, xóa (tài khoản, bãi gửi)</t>
+  </si>
+  <si>
+    <t>Biểu đồ trạng thái: check in, check out, thống kê</t>
+  </si>
+  <si>
+    <t>Biểu đồ lớp chi tiết, biểu đồ trạng thái, xây dựng database</t>
+  </si>
+  <si>
+    <t>Lập bảng mô tả chức năng, biểu đồ lớp, biểu đồ use case</t>
+  </si>
+  <si>
+    <t>Biểu đồ lớp, biểu đồ use case</t>
+  </si>
+  <si>
+    <t>Phân tích yêu cầu, xác định công nghệ, phác thảo màn hình cơ bản</t>
+  </si>
+  <si>
+    <t>Viết test case. Biểu đồ triển khai. Code: Hoàn thiện khung project theo mô hình, chức năng đăng nhập</t>
+  </si>
+  <si>
+    <t>Tuần: 9</t>
+  </si>
+  <si>
+    <t>Từ ngày đến ngày: 17/10/2022-23/10/2022</t>
+  </si>
+  <si>
+    <t>Viết test case</t>
+  </si>
+  <si>
+    <t>Test case: Thêm, sửa, xóa bãi gửi xe; Check in</t>
+  </si>
+  <si>
+    <t>Test case: Đăng nhập, thống kê</t>
+  </si>
+  <si>
+    <t>Test case: Thêm, sửa, xóa nhân viên</t>
+  </si>
+  <si>
+    <t>Test case: Tra cứu, check out</t>
+  </si>
+  <si>
+    <t>Hoàn thành trước họp nhóm</t>
+  </si>
+  <si>
+    <t>Biểu đồ triển khai</t>
+  </si>
+  <si>
+    <t>Giao diện đăng nhập</t>
+  </si>
+  <si>
+    <t>Xử lý đăng nhập</t>
+  </si>
+  <si>
+    <t>theo phác thảo màn hình đã có</t>
   </si>
 </sst>
 </file>
@@ -491,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -572,23 +611,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -906,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -921,22 +973,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1000,7 +1052,7 @@
         <v>44</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>26</v>
@@ -1017,7 +1069,7 @@
         <v>45</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>26</v>
@@ -1034,7 +1086,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>26</v>
@@ -1051,11 +1103,13 @@
         <v>47</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -1065,10 +1119,12 @@
       <c r="C10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="6"/>
+      <c r="D10" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -1081,7 +1137,7 @@
         <v>54</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E11" s="6"/>
     </row>
@@ -1096,7 +1152,7 @@
         <v>49</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E12" s="6"/>
     </row>
@@ -1111,7 +1167,7 @@
         <v>50</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E13" s="6"/>
     </row>
@@ -1126,7 +1182,7 @@
         <v>51</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E14" s="6"/>
     </row>
@@ -1141,7 +1197,7 @@
         <v>52</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E15" s="6"/>
     </row>
@@ -1206,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1222,30 +1278,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1267,11 +1323,11 @@
       <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -1302,7 +1358,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="35">
+      <c r="A9" s="36">
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1316,7 +1372,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
@@ -1326,7 +1382,7 @@
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
@@ -1338,7 +1394,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
@@ -1442,7 +1498,7 @@
       <c r="B21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="39" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -1456,7 +1512,7 @@
       <c r="B22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="33"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="8"/>
     </row>
     <row r="24" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -1542,7 +1598,7 @@
       <c r="B30" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="39" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="8" t="s">
@@ -1556,7 +1612,7 @@
       <c r="B31" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="33"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1636,7 +1692,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="C39" s="29" t="s">
         <v>16</v>
@@ -1648,20 +1704,20 @@
         <v>6</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D40" s="6"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="24"/>
       <c r="B42" s="17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D42" s="16"/>
     </row>
@@ -1684,10 +1740,10 @@
         <v>1</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D44" s="6"/>
     </row>
@@ -1696,13 +1752,13 @@
         <v>2</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C45" s="30" t="s">
         <v>20</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="33" x14ac:dyDescent="0.25">
@@ -1710,7 +1766,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C46" s="30" t="s">
         <v>37</v>
@@ -1722,13 +1778,13 @@
         <v>4</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C47" s="30" t="s">
         <v>36</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="33" x14ac:dyDescent="0.25">
@@ -1736,7 +1792,7 @@
         <v>5</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="C48" s="30" t="s">
         <v>18</v>
@@ -1748,20 +1804,20 @@
         <v>6</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D49" s="6"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
       <c r="B51" s="17" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D51" s="16"/>
     </row>
@@ -1783,12 +1839,12 @@
       <c r="A53" s="5">
         <v>1</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="40" t="s">
         <v>96</v>
-      </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="33" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1796,122 +1852,301 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="33"/>
+      <c r="D54" s="41"/>
     </row>
     <row r="55" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A55" s="31">
         <v>1.2</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="33"/>
+      <c r="D55" s="41"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="31">
         <v>1.3</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="33"/>
+      <c r="D56" s="41"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="31">
         <v>1.4</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="33"/>
+      <c r="D57" s="42"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
+      <c r="A58" s="31">
         <v>2</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C58" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" s="33"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
-        <v>3</v>
+      <c r="A59" s="31">
+        <v>2.1</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" s="33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
-        <v>4</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>103</v>
+        <v>36</v>
+      </c>
+      <c r="D59" s="8"/>
+    </row>
+    <row r="60" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A60" s="31">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="33"/>
+        <v>37</v>
+      </c>
+      <c r="D60" s="8"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
-        <v>5</v>
+      <c r="A61" s="31">
+        <v>2.2999999999999998</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="33"/>
-    </row>
-    <row r="62" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
-        <v>6</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>88</v>
+        <v>20</v>
+      </c>
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="31">
+        <v>2.4</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="6"/>
+      <c r="D62" s="8"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>3</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="8"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>4</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>5</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="39"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>6</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="39"/>
+    </row>
+    <row r="67" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>7</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="6"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="24"/>
+      <c r="B69" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69" s="16"/>
+    </row>
+    <row r="70" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>1</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72" s="39"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D73" s="39"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="39"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
+        <v>2</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="6"/>
+    </row>
+    <row r="76" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>3</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="6"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
+        <v>4</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" s="6"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
+        <v>5</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="D71:D74"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A9:A12"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D53:D58"/>
+    <mergeCell ref="D64:D66"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="A6:E6"/>
+    <mergeCell ref="D53:D57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Kế hoạch nhóm 01.xlsx
+++ b/Kế hoạch nhóm 01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Practice-teamwork-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9074C81C-517A-46CD-B22F-F5442A715687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A639468B-DCB7-462A-8AE6-2C06247D75FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="132">
   <si>
     <t>KẾ HOẠCH CHUNG</t>
   </si>
@@ -210,12 +210,6 @@
     <t>12/12/2022-18/12/2022</t>
   </si>
   <si>
-    <t>Làm báo cáo (tt)</t>
-  </si>
-  <si>
-    <t>Duyệt lại phần mềm và báo cáo.</t>
-  </si>
-  <si>
     <t>Báo cáo kết qủa cuối với giảng viên</t>
   </si>
   <si>
@@ -292,9 +286,6 @@
   </si>
   <si>
     <t>Code: Giao diện, chức năng quản lý (tìm kiếm, xử lý xuất bãi, xử lý hóa đơn)</t>
-  </si>
-  <si>
-    <t>Kiểm tra lỗi và sửa lỗi (tt) + làm báo cáo</t>
   </si>
   <si>
     <t>Code: Chức năng quản lý admin (thống kê, tra cứu, thêm sửa xóa nv + bãi gửi)</t>
@@ -367,9 +358,6 @@
     <t>Phân tích yêu cầu, xác định công nghệ, phác thảo màn hình cơ bản</t>
   </si>
   <si>
-    <t>Viết test case. Biểu đồ triển khai. Code: Hoàn thiện khung project theo mô hình, chức năng đăng nhập</t>
-  </si>
-  <si>
     <t>Tuần: 9</t>
   </si>
   <si>
@@ -404,6 +392,48 @@
   </si>
   <si>
     <t>theo phác thảo màn hình đã có</t>
+  </si>
+  <si>
+    <t>Viết test case. Biểu đồ triển khai. Code: Hoàn thiện khung project theo mô hình</t>
+  </si>
+  <si>
+    <t>Tuần: 10</t>
+  </si>
+  <si>
+    <t>Từ ngày đến ngày: 24/10/2022-30/10/2022</t>
+  </si>
+  <si>
+    <t>Hoàn thiện báo cáo</t>
+  </si>
+  <si>
+    <t>Phần giới thiệu, định nghĩa bài toán</t>
+  </si>
+  <si>
+    <t>Tổng hợp báo cáo pha đặc tả, phân tích, thiết kế + duyệt</t>
+  </si>
+  <si>
+    <t>Bổ sung phần báo cáo nếu còn thiếu</t>
+  </si>
+  <si>
+    <t>Hồ Thị Cẩm Ly, Tạ Xuân Kiên</t>
+  </si>
+  <si>
+    <t>Làm báo cáo</t>
+  </si>
+  <si>
+    <t>Hoàn thiện báo cáo phần phân tích, thiết kế.</t>
+  </si>
+  <si>
+    <t>Code: Giao diện, chức năng đăng nhập.</t>
+  </si>
+  <si>
+    <t>Có thể hỗ trợ lẫn nhau</t>
+  </si>
+  <si>
+    <t>Tuần: 11</t>
+  </si>
+  <si>
+    <t>Từ ngày đến ngày: 31/10/2022-6/11/2022</t>
   </si>
 </sst>
 </file>
@@ -530,7 +560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -565,7 +595,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -615,9 +644,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -630,9 +665,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -641,6 +673,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -958,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1052,7 +1090,7 @@
         <v>44</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>26</v>
@@ -1069,7 +1107,7 @@
         <v>45</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>26</v>
@@ -1086,7 +1124,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>26</v>
@@ -1103,7 +1141,7 @@
         <v>47</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>26</v>
@@ -1120,7 +1158,7 @@
         <v>48</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>26</v>
@@ -1136,12 +1174,14 @@
       <c r="C11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+      <c r="D11" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -1151,12 +1191,14 @@
       <c r="C12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+      <c r="D12" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -1166,12 +1208,12 @@
       <c r="C13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>86</v>
+      <c r="D13" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -1181,12 +1223,12 @@
       <c r="C14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>83</v>
+      <c r="D14" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -1196,8 +1238,8 @@
       <c r="C15" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>85</v>
+      <c r="D15" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="E15" s="6"/>
     </row>
@@ -1212,7 +1254,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="E16" s="6"/>
     </row>
@@ -1227,7 +1269,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="E17" s="6"/>
     </row>
@@ -1242,12 +1284,12 @@
         <v>56</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
+      <c r="B19" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1262,15 +1304,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="25"/>
+    <col min="1" max="1" width="8.7109375" style="24"/>
     <col min="2" max="2" width="37.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="42.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="25" style="2" customWidth="1"/>
@@ -1278,49 +1320,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
     </row>
-    <row r="5" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="17" t="s">
+    <row r="5" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
@@ -1358,7 +1400,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="36">
+      <c r="A9" s="37">
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1372,7 +1414,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
@@ -1382,7 +1424,7 @@
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
@@ -1394,7 +1436,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
@@ -1415,15 +1457,15 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="15" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="17" t="s">
+    <row r="15" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -1440,7 +1482,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
+      <c r="A17" s="21">
         <v>1</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -1454,7 +1496,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="66" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
+      <c r="A18" s="21">
         <v>2</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1468,7 +1510,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
+      <c r="A19" s="21">
         <v>3</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -1480,7 +1522,7 @@
       <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="22">
+      <c r="A20" s="21">
         <v>4</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1492,13 +1534,13 @@
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
+      <c r="A21" s="21">
         <v>5</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -1506,24 +1548,24 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A22" s="22">
+      <c r="A22" s="21">
         <v>6</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="39"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="8"/>
     </row>
-    <row r="24" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="16"/>
+    <row r="24" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
@@ -1540,11 +1582,11 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="22">
+      <c r="A26" s="21">
         <v>1</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>16</v>
@@ -1554,11 +1596,11 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="66" x14ac:dyDescent="0.25">
-      <c r="A27" s="22">
+      <c r="A27" s="21">
         <v>2</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>34</v>
@@ -1568,11 +1610,11 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A28" s="22">
+      <c r="A28" s="21">
         <v>3</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>36</v>
@@ -1580,11 +1622,11 @@
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A29" s="22">
+      <c r="A29" s="21">
         <v>4</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>37</v>
@@ -1592,13 +1634,13 @@
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A30" s="22">
+      <c r="A30" s="21">
         <v>5</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="8" t="s">
@@ -1606,24 +1648,24 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A31" s="22">
+      <c r="A31" s="21">
         <v>6</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="39"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="16"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="15"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
@@ -1640,11 +1682,11 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="22">
+      <c r="A35" s="21">
         <v>1</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>37</v>
@@ -1656,7 +1698,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>20</v>
@@ -1668,7 +1710,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>18</v>
@@ -1680,7 +1722,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>36</v>
@@ -1688,38 +1730,38 @@
       <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="28">
+      <c r="A39" s="27">
         <v>5</v>
       </c>
-      <c r="B39" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="29" t="s">
+      <c r="B39" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="29"/>
-    </row>
-    <row r="40" spans="1:4" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="28"/>
+    </row>
+    <row r="40" spans="1:4" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>6</v>
       </c>
       <c r="B40" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="23"/>
+      <c r="B42" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C42" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" s="16"/>
+      <c r="D42" s="15"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
@@ -1736,29 +1778,29 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="26">
+      <c r="A44" s="25">
         <v>1</v>
       </c>
       <c r="B44" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="D44" s="6"/>
     </row>
     <row r="45" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A45" s="26">
+      <c r="A45" s="25">
         <v>2</v>
       </c>
       <c r="B45" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="33" x14ac:dyDescent="0.25">
@@ -1766,25 +1808,25 @@
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C46" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="30"/>
+      <c r="D46" s="29"/>
     </row>
     <row r="47" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>4</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="29" t="s">
         <v>36</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="33" x14ac:dyDescent="0.25">
@@ -1792,34 +1834,34 @@
         <v>5</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C48" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="30"/>
+      <c r="D48" s="29"/>
     </row>
     <row r="49" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>6</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>72</v>
       </c>
       <c r="D49" s="6"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="24"/>
-      <c r="B51" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D51" s="16"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="15"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
@@ -1839,20 +1881,20 @@
       <c r="A53" s="5">
         <v>1</v>
       </c>
-      <c r="B53" s="33" t="s">
-        <v>87</v>
+      <c r="B53" s="32" t="s">
+        <v>84</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="40" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="31">
+      <c r="A54" s="30">
         <v>1.1000000000000001</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>36</v>
@@ -1860,11 +1902,11 @@
       <c r="D54" s="41"/>
     </row>
     <row r="55" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A55" s="31">
+      <c r="A55" s="30">
         <v>1.2</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>37</v>
@@ -1872,11 +1914,11 @@
       <c r="D55" s="41"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="31">
+      <c r="A56" s="30">
         <v>1.3</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>20</v>
@@ -1884,11 +1926,11 @@
       <c r="D56" s="41"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="31">
+      <c r="A57" s="30">
         <v>1.4</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>18</v>
@@ -1896,21 +1938,21 @@
       <c r="D57" s="42"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="31">
+      <c r="A58" s="30">
         <v>2</v>
       </c>
-      <c r="B58" s="32" t="s">
-        <v>101</v>
+      <c r="B58" s="31" t="s">
+        <v>98</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="31">
+      <c r="A59" s="30">
         <v>2.1</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>36</v>
@@ -1918,11 +1960,11 @@
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A60" s="31">
+      <c r="A60" s="30">
         <v>2.2000000000000002</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>37</v>
@@ -1930,11 +1972,11 @@
       <c r="D60" s="8"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="31">
+      <c r="A61" s="30">
         <v>2.2999999999999998</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>20</v>
@@ -1942,11 +1984,11 @@
       <c r="D61" s="8"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="31">
+      <c r="A62" s="30">
         <v>2.4</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>18</v>
@@ -1958,7 +2000,7 @@
         <v>3</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>18</v>
@@ -1970,13 +2012,13 @@
         <v>4</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="39" t="s">
-        <v>97</v>
+      <c r="D64" s="35" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1984,31 +2026,31 @@
         <v>5</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="39"/>
+      <c r="D65" s="35"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>6</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="39"/>
+      <c r="D66" s="35"/>
     </row>
     <row r="67" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>7</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>18</v>
@@ -2016,128 +2058,303 @@
       <c r="D67" s="6"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="24"/>
-      <c r="B69" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D69" s="16"/>
-    </row>
-    <row r="70" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
+      <c r="A69" s="23"/>
+      <c r="B69" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69" s="15"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="13" t="s">
-        <v>121</v>
+      <c r="B70" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
+        <v>1</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B72" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="C71" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" s="39" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D72" s="39"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D73" s="39"/>
+        <v>36</v>
+      </c>
+      <c r="D73" s="35"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D74" s="39"/>
+        <v>37</v>
+      </c>
+      <c r="D74" s="35"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="35"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
         <v>2</v>
       </c>
-      <c r="B75" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C75" s="6" t="s">
+      <c r="B76" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D75" s="6"/>
-    </row>
-    <row r="76" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
+      <c r="D76" s="6"/>
+    </row>
+    <row r="77" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
         <v>3</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C76" s="6" t="s">
+      <c r="B77" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="D76" s="6"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="5">
-        <v>4</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="D77" s="6"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
+        <v>4</v>
+      </c>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
         <v>5</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="23"/>
+      <c r="B81" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C81" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="D81" s="15"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
+        <v>1</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="33">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" s="6"/>
+    </row>
+    <row r="85" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A85" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="6"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="33">
+        <v>1.3</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D86" s="6"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="5">
+        <v>2</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" s="6"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="5">
+        <v>3</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D88" s="6"/>
+    </row>
+    <row r="89" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A89" s="5">
+        <v>4</v>
+      </c>
+      <c r="B89" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D78" s="6"/>
+      <c r="C89" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" s="6"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="23"/>
+      <c r="B91" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D91" s="15"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="5">
+        <v>1</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D93" s="43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="5">
+        <v>2</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D94" s="44"/>
+    </row>
+    <row r="95" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A95" s="5">
+        <v>3</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="D71:D74"/>
+  <mergeCells count="11">
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="D72:D75"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>

--- a/Kế hoạch nhóm 01.xlsx
+++ b/Kế hoạch nhóm 01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Practice-teamwork-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A639468B-DCB7-462A-8AE6-2C06247D75FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E67EBE5-85FD-47A5-AC3A-454E08042E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kế hoạch chung" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="136">
   <si>
     <t>KẾ HOẠCH CHUNG</t>
   </si>
@@ -434,6 +434,18 @@
   </si>
   <si>
     <t>Từ ngày đến ngày: 31/10/2022-6/11/2022</t>
+  </si>
+  <si>
+    <t>Tuần: 12</t>
+  </si>
+  <si>
+    <t>Từ ngày đến ngày: 7/11/2022-13/11/2022</t>
+  </si>
+  <si>
+    <t>Giao diện quản lý</t>
+  </si>
+  <si>
+    <t>Xử lý trang quản lý nhân viên</t>
   </si>
 </sst>
 </file>
@@ -650,6 +662,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -673,12 +691,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -996,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1211,7 +1223,9 @@
       <c r="D13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -1304,10 +1318,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1320,30 +1334,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1400,7 +1414,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="37">
+      <c r="A9" s="39">
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1414,7 +1428,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
@@ -1424,7 +1438,7 @@
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
@@ -1436,7 +1450,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
@@ -1540,7 +1554,7 @@
       <c r="B21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="37" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -1554,7 +1568,7 @@
       <c r="B22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="35"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="8"/>
     </row>
     <row r="24" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -1640,7 +1654,7 @@
       <c r="B30" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="37" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="8" t="s">
@@ -1654,7 +1668,7 @@
       <c r="B31" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="35"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1885,7 +1899,7 @@
         <v>84</v>
       </c>
       <c r="C53" s="10"/>
-      <c r="D53" s="40" t="s">
+      <c r="D53" s="42" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1899,7 +1913,7 @@
       <c r="C54" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="41"/>
+      <c r="D54" s="43"/>
     </row>
     <row r="55" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A55" s="30">
@@ -1911,7 +1925,7 @@
       <c r="C55" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="41"/>
+      <c r="D55" s="43"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="30">
@@ -1923,7 +1937,7 @@
       <c r="C56" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="41"/>
+      <c r="D56" s="43"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="30">
@@ -1935,7 +1949,7 @@
       <c r="C57" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="42"/>
+      <c r="D57" s="44"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="30">
@@ -2017,7 +2031,7 @@
       <c r="C64" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="35" t="s">
+      <c r="D64" s="37" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2031,7 +2045,7 @@
       <c r="C65" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="35"/>
+      <c r="D65" s="37"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
@@ -2043,7 +2057,7 @@
       <c r="C66" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="35"/>
+      <c r="D66" s="37"/>
     </row>
     <row r="67" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
@@ -2103,7 +2117,7 @@
       <c r="C72" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D72" s="35" t="s">
+      <c r="D72" s="37" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2117,7 +2131,7 @@
       <c r="C73" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D73" s="35"/>
+      <c r="D73" s="37"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
@@ -2129,7 +2143,7 @@
       <c r="C74" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D74" s="35"/>
+      <c r="D74" s="37"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
@@ -2141,7 +2155,7 @@
       <c r="C75" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D75" s="35"/>
+      <c r="D75" s="37"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
@@ -2323,7 +2337,7 @@
       <c r="C93" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D93" s="43" t="s">
+      <c r="D93" s="35" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2337,7 +2351,7 @@
       <c r="C94" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D94" s="44"/>
+      <c r="D94" s="36"/>
     </row>
     <row r="95" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
@@ -2347,12 +2361,75 @@
         <v>79</v>
       </c>
       <c r="C95" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" s="6"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="23"/>
+      <c r="B97" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D97" s="15"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="24">
+        <v>1</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" s="35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="24">
+        <v>2</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D100" s="36"/>
+    </row>
+    <row r="101" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A101" s="24">
+        <v>3</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D95" s="6"/>
+      <c r="D101" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="D99:D100"/>
     <mergeCell ref="D93:D94"/>
     <mergeCell ref="D72:D75"/>
     <mergeCell ref="A3:D3"/>

--- a/Kế hoạch nhóm 01.xlsx
+++ b/Kế hoạch nhóm 01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Practice-teamwork-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A639468B-DCB7-462A-8AE6-2C06247D75FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDD2980-718E-4190-B8FA-57AEC8AB6F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="143">
   <si>
     <t>KẾ HOẠCH CHUNG</t>
   </si>
@@ -283,9 +283,6 @@
   </si>
   <si>
     <t>Kiểm tra lỗi và sửa lỗi</t>
-  </si>
-  <si>
-    <t>Code: Giao diện, chức năng quản lý (tìm kiếm, xử lý xuất bãi, xử lý hóa đơn)</t>
   </si>
   <si>
     <t>Code: Chức năng quản lý admin (thống kê, tra cứu, thêm sửa xóa nv + bãi gửi)</t>
@@ -434,6 +431,42 @@
   </si>
   <si>
     <t>Từ ngày đến ngày: 31/10/2022-6/11/2022</t>
+  </si>
+  <si>
+    <t>Tuần: 12</t>
+  </si>
+  <si>
+    <t>Từ ngày đến ngày: 7/11/2022-13/11/2022</t>
+  </si>
+  <si>
+    <t>Giao diện quản lý</t>
+  </si>
+  <si>
+    <t>Xử lý trang quản lý nhân viên</t>
+  </si>
+  <si>
+    <t>Code: Giao diện, chức năng quản lý (tìm kiếm, xử lý xuất bãi, xử lý hóa đơn) + bổ sung cho tuần 12</t>
+  </si>
+  <si>
+    <t>Tuần: 13</t>
+  </si>
+  <si>
+    <t>Từ ngày đến ngày: 14/11/2022-20/11/2022</t>
+  </si>
+  <si>
+    <t>Giao diện quản lý admin</t>
+  </si>
+  <si>
+    <t>Hoàn thành giao diện quản lý nhân viên</t>
+  </si>
+  <si>
+    <t>Xử lý trang quản lý admin</t>
+  </si>
+  <si>
+    <t>Kiên hỗ trợ liên kết</t>
+  </si>
+  <si>
+    <t>Hỗ trợ, nhận xét qua lại</t>
   </si>
 </sst>
 </file>
@@ -496,7 +529,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -556,11 +589,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -650,6 +696,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -674,11 +726,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -996,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1090,7 +1149,7 @@
         <v>44</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>26</v>
@@ -1107,7 +1166,7 @@
         <v>45</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>26</v>
@@ -1124,7 +1183,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>26</v>
@@ -1141,7 +1200,7 @@
         <v>47</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>26</v>
@@ -1158,7 +1217,7 @@
         <v>48</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>26</v>
@@ -1175,7 +1234,7 @@
         <v>54</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>26</v>
@@ -1192,7 +1251,7 @@
         <v>49</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>26</v>
@@ -1211,7 +1270,9 @@
       <c r="D13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -1224,9 +1285,11 @@
         <v>51</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="6"/>
+        <v>135</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
@@ -1239,7 +1302,7 @@
         <v>52</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15" s="6"/>
     </row>
@@ -1269,7 +1332,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E17" s="6"/>
     </row>
@@ -1304,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="I104" sqref="I104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1320,30 +1383,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1400,7 +1463,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="37">
+      <c r="A9" s="39">
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1414,7 +1477,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
@@ -1424,7 +1487,7 @@
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
@@ -1436,7 +1499,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
@@ -1540,7 +1603,7 @@
       <c r="B21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="37" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -1554,7 +1617,7 @@
       <c r="B22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="35"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="8"/>
     </row>
     <row r="24" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -1640,7 +1703,7 @@
       <c r="B30" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="37" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="8" t="s">
@@ -1654,7 +1717,7 @@
       <c r="B31" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="35"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1734,7 +1797,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C39" s="28" t="s">
         <v>16</v>
@@ -1808,7 +1871,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C46" s="29" t="s">
         <v>37</v>
@@ -1820,7 +1883,7 @@
         <v>4</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C47" s="29" t="s">
         <v>36</v>
@@ -1834,7 +1897,7 @@
         <v>5</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C48" s="29" t="s">
         <v>18</v>
@@ -1856,10 +1919,10 @@
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
       <c r="B51" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="17" t="s">
         <v>95</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>96</v>
       </c>
       <c r="D51" s="15"/>
     </row>
@@ -1882,11 +1945,11 @@
         <v>1</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C53" s="10"/>
-      <c r="D53" s="40" t="s">
-        <v>93</v>
+      <c r="D53" s="42" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1894,55 +1957,55 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="41"/>
+      <c r="D54" s="43"/>
     </row>
     <row r="55" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A55" s="30">
         <v>1.2</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="41"/>
+      <c r="D55" s="43"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="30">
         <v>1.3</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="41"/>
+      <c r="D56" s="43"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="30">
         <v>1.4</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="42"/>
+      <c r="D57" s="44"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="30">
         <v>2</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="8"/>
@@ -1952,7 +2015,7 @@
         <v>2.1</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>36</v>
@@ -1964,7 +2027,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>37</v>
@@ -1976,7 +2039,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>20</v>
@@ -1988,7 +2051,7 @@
         <v>2.4</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>18</v>
@@ -2000,7 +2063,7 @@
         <v>3</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>18</v>
@@ -2012,13 +2075,13 @@
         <v>4</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="35" t="s">
-        <v>94</v>
+      <c r="D64" s="37" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2026,24 +2089,24 @@
         <v>5</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="35"/>
+      <c r="D65" s="37"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>6</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="35"/>
+      <c r="D66" s="37"/>
     </row>
     <row r="67" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
@@ -2060,10 +2123,10 @@
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" s="17" t="s">
         <v>106</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>107</v>
       </c>
       <c r="D69" s="15"/>
     </row>
@@ -2086,11 +2149,11 @@
         <v>1</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="33" x14ac:dyDescent="0.25">
@@ -2098,13 +2161,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D72" s="35" t="s">
-        <v>113</v>
+      <c r="D72" s="37" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2112,43 +2175,43 @@
         <v>1.2</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D73" s="35"/>
+      <c r="D73" s="37"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>1.3</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D74" s="35"/>
+      <c r="D74" s="37"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>1.4</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D75" s="35"/>
+      <c r="D75" s="37"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>2</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>16</v>
@@ -2186,10 +2249,10 @@
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C81" s="17" t="s">
         <v>119</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>120</v>
       </c>
       <c r="D81" s="15"/>
     </row>
@@ -2212,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2222,7 +2285,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>37</v>
@@ -2234,7 +2297,7 @@
         <v>1.2</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>18</v>
@@ -2246,10 +2309,10 @@
         <v>1.3</v>
       </c>
       <c r="B86" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="D86" s="6"/>
     </row>
@@ -2258,7 +2321,7 @@
         <v>2</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>23</v>
@@ -2270,7 +2333,7 @@
         <v>3</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>77</v>
@@ -2292,10 +2355,10 @@
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="23"/>
       <c r="B91" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C91" s="17" t="s">
         <v>130</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>131</v>
       </c>
       <c r="D91" s="15"/>
     </row>
@@ -2318,13 +2381,13 @@
         <v>1</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D93" s="43" t="s">
-        <v>129</v>
+      <c r="D93" s="35" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2332,12 +2395,12 @@
         <v>2</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D94" s="44"/>
+      <c r="D94" s="36"/>
     </row>
     <row r="95" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
@@ -2347,12 +2410,162 @@
         <v>79</v>
       </c>
       <c r="C95" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" s="6"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="23"/>
+      <c r="B97" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D97" s="15"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="5">
+        <v>1</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" s="35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="5">
+        <v>2</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D100" s="36"/>
+    </row>
+    <row r="101" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A101" s="5">
+        <v>3</v>
+      </c>
+      <c r="B101" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C101" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101" s="6"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="23"/>
+      <c r="B103" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D103" s="15"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A105" s="5">
+        <v>1</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C105" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D105" s="46" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="5">
+        <v>2</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C106" s="48"/>
+      <c r="D106" s="40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="5">
+        <v>3</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C107" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="D107" s="40"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="5">
+        <v>4</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C108" s="48"/>
+      <c r="D108" s="41"/>
+    </row>
+    <row r="109" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A109" s="5">
+        <v>5</v>
+      </c>
+      <c r="B109" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C109" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="D95" s="6"/>
+      <c r="D109" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D106:D108"/>
+    <mergeCell ref="D99:D100"/>
     <mergeCell ref="D93:D94"/>
     <mergeCell ref="D72:D75"/>
     <mergeCell ref="A3:D3"/>

--- a/Kế hoạch nhóm 01.xlsx
+++ b/Kế hoạch nhóm 01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Practice-teamwork-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDD2980-718E-4190-B8FA-57AEC8AB6F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB39F4F-4648-4037-BCAB-DC385765219A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="160">
   <si>
     <t>KẾ HOẠCH CHUNG</t>
   </si>
@@ -280,9 +280,6 @@
   </si>
   <si>
     <t>biểu đồ thêm sửa xóa minh họa chung cho tài khoản và bãi gửi...</t>
-  </si>
-  <si>
-    <t>Kiểm tra lỗi và sửa lỗi</t>
   </si>
   <si>
     <t>Code: Chức năng quản lý admin (thống kê, tra cứu, thêm sửa xóa nv + bãi gửi)</t>
@@ -415,9 +412,6 @@
     <t>Hồ Thị Cẩm Ly, Tạ Xuân Kiên</t>
   </si>
   <si>
-    <t>Làm báo cáo</t>
-  </si>
-  <si>
     <t>Hoàn thiện báo cáo phần phân tích, thiết kế.</t>
   </si>
   <si>
@@ -467,13 +461,70 @@
   </si>
   <si>
     <t>Hỗ trợ, nhận xét qua lại</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa giao diện phần trước nếu có vấn đề</t>
+  </si>
+  <si>
+    <t>Xử lý trang quản lý admin (tiếp theo)</t>
+  </si>
+  <si>
+    <t>Hoàn thành giao diện admin (tiếp theo)</t>
+  </si>
+  <si>
+    <t>Hỗ trợ trao đổi lẫn nhau</t>
+  </si>
+  <si>
+    <t>Họp nhóm: hỗ trợ, binding</t>
+  </si>
+  <si>
+    <t>Báo cáo với giảng viên</t>
+  </si>
+  <si>
+    <t>Trưởng nhóm</t>
+  </si>
+  <si>
+    <t>Từ ngày đến ngày: 21/11/2022-27/11/2022</t>
+  </si>
+  <si>
+    <t>Kiểm tra lỗi, sửa lỗi và làm báo cáo</t>
+  </si>
+  <si>
+    <t>Tuần: 14</t>
+  </si>
+  <si>
+    <t>Từ ngày đến ngày: 28/11/2022-4/12/2022</t>
+  </si>
+  <si>
+    <t>Hoàn thành các chức năng còn thiếu, bug</t>
+  </si>
+  <si>
+    <t>Viết báo cáo: chỉnh sửa nếu có thay đổi + báo cáo phần giao diện</t>
+  </si>
+  <si>
+    <t>Viết báo cáo phần code</t>
+  </si>
+  <si>
+    <t>Tạ Xuân Kiên, (Phùng Thị Thùy)</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa lại hình thức trình bày file báo cáo</t>
+  </si>
+  <si>
+    <t>Phác thảo màn hình (phần bị thay đổi)</t>
+  </si>
+  <si>
+    <t>Phùng Thị Thùy, (Tạ Xuân Kiên)</t>
+  </si>
+  <si>
+    <t>Họp nhóm: chốt ứng dụng và báo cáo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,6 +562,12 @@
       <i/>
       <sz val="13"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFC00000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -606,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -693,52 +750,63 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1055,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1070,22 +1138,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1149,7 +1217,7 @@
         <v>44</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>26</v>
@@ -1166,7 +1234,7 @@
         <v>45</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>26</v>
@@ -1183,7 +1251,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>26</v>
@@ -1200,7 +1268,7 @@
         <v>47</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>26</v>
@@ -1217,7 +1285,7 @@
         <v>48</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>26</v>
@@ -1234,7 +1302,7 @@
         <v>54</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>26</v>
@@ -1251,7 +1319,7 @@
         <v>49</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>26</v>
@@ -1285,7 +1353,7 @@
         <v>51</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>26</v>
@@ -1302,9 +1370,11 @@
         <v>52</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="6"/>
+        <v>81</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -1317,9 +1387,11 @@
         <v>53</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="6"/>
+        <v>149</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
@@ -1332,24 +1404,24 @@
         <v>55</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+    <row r="18" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="51">
         <v>15</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="52">
         <v>17</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="53"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="14"/>
@@ -1367,10 +1439,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="I104" sqref="I104"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1383,30 +1455,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1428,11 +1500,11 @@
       <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -1463,7 +1535,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="39">
+      <c r="A9" s="41">
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1477,7 +1549,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
@@ -1487,7 +1559,7 @@
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
@@ -1499,7 +1571,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
@@ -1603,7 +1675,7 @@
       <c r="B21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="39" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -1617,7 +1689,7 @@
       <c r="B22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="37"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="8"/>
     </row>
     <row r="24" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -1703,7 +1775,7 @@
       <c r="B30" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="39" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="8" t="s">
@@ -1717,7 +1789,7 @@
       <c r="B31" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="37"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1797,7 +1869,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C39" s="28" t="s">
         <v>16</v>
@@ -1871,7 +1943,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C46" s="29" t="s">
         <v>37</v>
@@ -1883,7 +1955,7 @@
         <v>4</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C47" s="29" t="s">
         <v>36</v>
@@ -1897,7 +1969,7 @@
         <v>5</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C48" s="29" t="s">
         <v>18</v>
@@ -1919,10 +1991,10 @@
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
       <c r="B51" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="17" t="s">
         <v>94</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>95</v>
       </c>
       <c r="D51" s="15"/>
     </row>
@@ -1945,11 +2017,11 @@
         <v>1</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C53" s="10"/>
-      <c r="D53" s="42" t="s">
-        <v>92</v>
+      <c r="D53" s="44" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1957,55 +2029,55 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="43"/>
+      <c r="D54" s="45"/>
     </row>
     <row r="55" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A55" s="30">
         <v>1.2</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="43"/>
+      <c r="D55" s="45"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="30">
         <v>1.3</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="43"/>
+      <c r="D56" s="45"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="30">
         <v>1.4</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="44"/>
+      <c r="D57" s="46"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="30">
         <v>2</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="8"/>
@@ -2015,7 +2087,7 @@
         <v>2.1</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>36</v>
@@ -2027,7 +2099,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>37</v>
@@ -2039,7 +2111,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>20</v>
@@ -2051,7 +2123,7 @@
         <v>2.4</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>18</v>
@@ -2063,7 +2135,7 @@
         <v>3</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>18</v>
@@ -2075,13 +2147,13 @@
         <v>4</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="37" t="s">
-        <v>93</v>
+      <c r="D64" s="39" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2089,24 +2161,24 @@
         <v>5</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="37"/>
+      <c r="D65" s="39"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>6</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="37"/>
+      <c r="D66" s="39"/>
     </row>
     <row r="67" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
@@ -2123,10 +2195,10 @@
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" s="17" t="s">
         <v>105</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>106</v>
       </c>
       <c r="D69" s="15"/>
     </row>
@@ -2149,11 +2221,11 @@
         <v>1</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="33" x14ac:dyDescent="0.25">
@@ -2161,13 +2233,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D72" s="37" t="s">
-        <v>112</v>
+      <c r="D72" s="39" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2175,43 +2247,43 @@
         <v>1.2</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D73" s="37"/>
+      <c r="D73" s="39"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>1.3</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D74" s="37"/>
+      <c r="D74" s="39"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>1.4</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D75" s="37"/>
+      <c r="D75" s="39"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>2</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>16</v>
@@ -2249,10 +2321,10 @@
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C81" s="17" t="s">
         <v>118</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>119</v>
       </c>
       <c r="D81" s="15"/>
     </row>
@@ -2275,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2285,7 +2357,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>37</v>
@@ -2297,7 +2369,7 @@
         <v>1.2</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>18</v>
@@ -2309,10 +2381,10 @@
         <v>1.3</v>
       </c>
       <c r="B86" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="D86" s="6"/>
     </row>
@@ -2321,7 +2393,7 @@
         <v>2</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>23</v>
@@ -2333,7 +2405,7 @@
         <v>3</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>77</v>
@@ -2355,10 +2427,10 @@
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="23"/>
       <c r="B91" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D91" s="15"/>
     </row>
@@ -2381,13 +2453,13 @@
         <v>1</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D93" s="35" t="s">
-        <v>128</v>
+      <c r="D93" s="49" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2395,12 +2467,12 @@
         <v>2</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D94" s="36"/>
+      <c r="D94" s="50"/>
     </row>
     <row r="95" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
@@ -2417,10 +2489,10 @@
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="23"/>
       <c r="B97" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D97" s="15"/>
     </row>
@@ -2443,13 +2515,13 @@
         <v>1</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D99" s="35" t="s">
-        <v>128</v>
+      <c r="D99" s="49" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2457,18 +2529,18 @@
         <v>2</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D100" s="36"/>
+      <c r="D100" s="50"/>
     </row>
     <row r="101" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>3</v>
       </c>
-      <c r="B101" s="45" t="s">
+      <c r="B101" s="34" t="s">
         <v>79</v>
       </c>
       <c r="C101" s="29" t="s">
@@ -2479,10 +2551,10 @@
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="23"/>
       <c r="B103" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D103" s="15"/>
     </row>
@@ -2505,13 +2577,13 @@
         <v>1</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C105" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D105" s="46" t="s">
-        <v>141</v>
+      <c r="D105" s="35" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2519,11 +2591,11 @@
         <v>2</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C106" s="48"/>
-      <c r="D106" s="40" t="s">
-        <v>142</v>
+      <c r="D106" s="42" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2531,42 +2603,232 @@
         <v>3</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C107" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="D107" s="40"/>
+      <c r="D107" s="42"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>4</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C108" s="48"/>
-      <c r="D108" s="41"/>
+      <c r="D108" s="43"/>
     </row>
     <row r="109" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>5</v>
       </c>
-      <c r="B109" s="45" t="s">
+      <c r="B109" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="C109" s="49" t="s">
+      <c r="C109" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D109" s="6"/>
     </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="23"/>
+      <c r="B111" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D111" s="15"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A113" s="5">
+        <v>1</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C113" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D113" s="39" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A114" s="5">
+        <v>2</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C114" s="38"/>
+      <c r="D114" s="39"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="5">
+        <v>3</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D115" s="39"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="5">
+        <v>4</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" s="6"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="5">
+        <v>5</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D117" s="6"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="23"/>
+      <c r="B119" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C119" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D119" s="15"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A121" s="5">
+        <v>1</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D121" s="6"/>
+    </row>
+    <row r="122" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A122" s="5">
+        <v>2</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D122" s="6"/>
+    </row>
+    <row r="123" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A123" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D123" s="6"/>
+    </row>
+    <row r="124" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A124" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D124" s="6"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="5">
+        <v>3</v>
+      </c>
+      <c r="B125" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D125" s="6"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="5">
+        <v>4</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" s="6"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="5">
+        <v>5</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D127" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D106:D108"/>
-    <mergeCell ref="D99:D100"/>
+  <mergeCells count="17">
     <mergeCell ref="D93:D94"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D115"/>
     <mergeCell ref="D72:D75"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A1:D1"/>
@@ -2577,6 +2839,10 @@
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="D53:D57"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D106:D108"/>
+    <mergeCell ref="D99:D100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
